--- a/Docs/ScrumBoard - Banking.xlsx
+++ b/Docs/ScrumBoard - Banking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4503D90-4E91-410E-82A3-BC8AF762AA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA121A94-E0EE-4147-B679-0CAD180F2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,17 +69,17 @@
     <t xml:space="preserve"> Develop repositories,services,controllers for customer login</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3. Transaction History[Harsha Patil]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 4. Credentials [Manikandan]
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1 Develop repositories,services,controllers for customer login
 2.2 Develop the angular components for customer login
 1.3 Integrate Front end and back end </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. Transaction History[Harsha Patil]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 3. Credentials [Manikandan]
+</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,10 +664,10 @@
     </row>
     <row r="3" spans="1:6" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>9</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="4" spans="1:6" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>

--- a/Docs/ScrumBoard - Banking.xlsx
+++ b/Docs/ScrumBoard - Banking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA121A94-E0EE-4147-B679-0CAD180F2A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C39C1D7-709F-44CB-8ED9-EF826FF19F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+      <selection activeCell="M2" activeCellId="1" sqref="D2 M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,7 +623,7 @@
     <col min="1" max="1" width="29.109375" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>

--- a/Docs/ScrumBoard - Banking.xlsx
+++ b/Docs/ScrumBoard - Banking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C39C1D7-709F-44CB-8ED9-EF826FF19F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79163319-730D-4F2A-B553-046E49950AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>User Story</t>
   </si>
@@ -66,20 +66,41 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Develop repositories,services,controllers for customer login</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.1 Develop repositories,services,controllers for customer login
 2.2 Develop the angular components for customer login
 1.3 Integrate Front end and back end </t>
   </si>
   <si>
-    <t xml:space="preserve"> 2. Transaction History[Harsha Patil]</t>
+    <t xml:space="preserve"> 2. Transaction History,Create account page[Harsha Patil]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developing repositories,Businessmodels for Credentials tables and Maintaing the changes in Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developing Frontend for create account component and validating the forms  </t>
+  </si>
+  <si>
+    <t>Customer dashboard and its methods</t>
+  </si>
+  <si>
+    <t>Admin component and its methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developing repositories,business models,services,controllers for customer , admin dashboard</t>
+  </si>
+  <si>
+    <t>Controllers for User Credentials</t>
   </si>
   <si>
     <t xml:space="preserve">
- 3. Credentials [Manikandan]
+ 3. User Credentials [Manikandan]
 </t>
+  </si>
+  <si>
+    <t>Database and Business for User credentials</t>
+  </si>
+  <si>
+    <t>Creating and Validating the Registration Component</t>
   </si>
 </sst>
 </file>
@@ -103,12 +124,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFB4C6E7"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -118,6 +133,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -158,7 +178,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -201,9 +221,44 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,29 +268,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -244,11 +288,9 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -259,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,35 +310,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M2" activeCellId="1" sqref="D2 M2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +676,7 @@
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -635,56 +687,70 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="137.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:6" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="C3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="4" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/ScrumBoard - Banking.xlsx
+++ b/Docs/ScrumBoard - Banking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Work\Project\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY DOCUMENTS\Project Gladiator\NetBanking\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79163319-730D-4F2A-B553-046E49950AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9855F9D6-E0B7-4009-9048-8EF07B26042F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>User Story</t>
   </si>
@@ -74,9 +74,6 @@
     <t xml:space="preserve"> 2. Transaction History,Create account page[Harsha Patil]</t>
   </si>
   <si>
-    <t xml:space="preserve"> Developing repositories,Businessmodels for Credentials tables and Maintaing the changes in Database</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Developing Frontend for create account component and validating the forms  </t>
   </si>
   <si>
@@ -87,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Developing repositories,business models,services,controllers for customer , admin dashboard</t>
-  </si>
-  <si>
-    <t>Controllers for User Credentials</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -97,10 +91,13 @@
 </t>
   </si>
   <si>
-    <t>Database and Business for User credentials</t>
-  </si>
-  <si>
     <t>Creating and Validating the Registration Component</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Developing userinterface for the admin and user components and validating the forms and Maintaing the changes in Database</t>
+  </si>
+  <si>
+    <t>Database and validating the user components</t>
   </si>
 </sst>
 </file>
@@ -667,7 +664,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,14 +705,14 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="132" customHeight="1" x14ac:dyDescent="0.3">
@@ -726,28 +723,26 @@
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
       <c r="F3" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="17" t="s">
         <v>18</v>
       </c>
